--- a/Lista de VEPs.xlsx
+++ b/Lista de VEPs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E97952-680D-41BF-93A5-5D045C632404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F23760C-CE5A-4AEA-AFF5-BACF4AC64DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -261,19 +259,19 @@
     <t xml:space="preserve">Monotributo </t>
   </si>
   <si>
-    <t>clavefalsa123</t>
-  </si>
-  <si>
     <t>claveprueba123</t>
-  </si>
-  <si>
-    <t>Juan Perez</t>
   </si>
   <si>
     <t>Gian Franco Lorenzo Patti</t>
   </si>
   <si>
     <t>mail@gmail.com.ar</t>
+  </si>
+  <si>
+    <t>Javier Nine</t>
+  </si>
+  <si>
+    <t>Javier0606</t>
   </si>
 </sst>
 </file>
@@ -783,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,32 +847,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>27000000006</v>
+        <f>+Contribuyentes!A2</f>
+        <v>20238733333</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>VLOOKUP($B2,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>Javier0606</v>
       </c>
       <c r="D2" s="7">
-        <v>27000000006</v>
+        <f>+B2</f>
+        <v>20238733333</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>VLOOKUP(D2,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
+        <f>+Contribuyentes!E2</f>
+        <v>Javier Nine</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>VLOOKUP(B2,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
         <v>Red Link</v>
       </c>
       <c r="G2" s="5">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J2" s="4" t="str">
         <f t="shared" ref="J2:J37" si="0">CONCATENATE(TEXT(G2,"MM-YYYY"),"_", TEXT(B2,"00-00000000-0"),"_",H2, "_",E2,".pdf")</f>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+        <v>06-2023_20-23873333-3_Monotributo _Javier Nine.pdf</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="str">
@@ -883,7 +883,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f>CONCATENATE(TEXT(G2,"mmyyyy"), " - ",H2, " - ", E2)</f>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>062023 - Monotributo  - Javier Nine</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -935,20 +935,20 @@
       <c r="B4" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="4" t="e">
         <f>VLOOKUP($B4,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D4" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="4" t="e">
         <f>VLOOKUP(D4,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F4" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="4" t="e">
         <f>VLOOKUP(B4,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G4" s="5">
         <v>45047</v>
@@ -956,18 +956,18 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J4" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="4" t="str">
+      <c r="L4" s="4" t="e">
         <f>VLOOKUP($B4,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M4" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1019,20 +1019,20 @@
       <c r="B6" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="4" t="e">
         <f>VLOOKUP($B6,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D6" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="4" t="e">
         <f>VLOOKUP(D6,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F6" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="4" t="e">
         <f>VLOOKUP(B6,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G6" s="5">
         <v>45047</v>
@@ -1040,18 +1040,18 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="4" t="e">
         <f>VLOOKUP($B6,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M6" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1103,20 +1103,20 @@
       <c r="B8" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="4" t="e">
         <f>VLOOKUP($B8,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D8" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="4" t="e">
         <f>VLOOKUP(D8,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F8" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="4" t="e">
         <f>VLOOKUP(B8,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G8" s="5">
         <v>45047</v>
@@ -1124,18 +1124,18 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J8" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="4" t="str">
+      <c r="L8" s="4" t="e">
         <f>VLOOKUP($B8,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M8" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1187,20 +1187,20 @@
       <c r="B10" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="4" t="e">
         <f>VLOOKUP($B10,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D10" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="4" t="e">
         <f>VLOOKUP(D10,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F10" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="4" t="e">
         <f>VLOOKUP(B10,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G10" s="5">
         <v>45047</v>
@@ -1208,18 +1208,18 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J10" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="4" t="str">
+      <c r="L10" s="4" t="e">
         <f>VLOOKUP($B10,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M10" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,20 +1271,20 @@
       <c r="B12" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C12" s="4" t="e">
         <f>VLOOKUP($B12,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D12" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="4" t="e">
         <f>VLOOKUP(D12,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F12" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="4" t="e">
         <f>VLOOKUP(B12,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G12" s="5">
         <v>45047</v>
@@ -1292,18 +1292,18 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J12" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="4" t="str">
+      <c r="L12" s="4" t="e">
         <f>VLOOKUP($B12,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M12" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="4" t="e">
         <f>CONCATENATE(TEXT(G12,"mmyyyy"), " - ",H12, " - ", E12)</f>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1355,20 +1355,20 @@
       <c r="B14" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="C14" s="4" t="e">
         <f>VLOOKUP($B14,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D14" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="4" t="e">
         <f>VLOOKUP(D14,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F14" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="4" t="e">
         <f>VLOOKUP(B14,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G14" s="5">
         <v>45047</v>
@@ -1376,18 +1376,18 @@
       <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Anticipo Ganancias y Bs Personales _Juan Perez.pdf</v>
+      <c r="J14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="4" t="str">
+      <c r="L14" s="4" t="e">
         <f>VLOOKUP($B14,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M14" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Anticipo Ganancias y Bs Personales  - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1439,20 +1439,20 @@
       <c r="B16" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="4" t="e">
         <f>VLOOKUP($B16,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D16" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="4" t="e">
         <f>VLOOKUP(D16,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F16" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="4" t="e">
         <f>VLOOKUP(B16,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" s="5">
         <v>45047</v>
@@ -1460,18 +1460,18 @@
       <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Anticipo  Bs Personales _Juan Perez.pdf</v>
+      <c r="J16" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="4" t="str">
+      <c r="L16" s="4" t="e">
         <f>VLOOKUP($B16,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M16" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Anticipo  Bs Personales  - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1523,20 +1523,20 @@
       <c r="B18" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="C18" s="4" t="e">
         <f>VLOOKUP($B18,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D18" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="4" t="e">
         <f>VLOOKUP(D18,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F18" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="4" t="e">
         <f>VLOOKUP(B18,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" s="5">
         <v>45047</v>
@@ -1544,18 +1544,18 @@
       <c r="H18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Anticipo Ganancias y Bs Personales _Juan Perez.pdf</v>
+      <c r="J18" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="4" t="str">
+      <c r="L18" s="4" t="e">
         <f>VLOOKUP($B18,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M18" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Anticipo Ganancias y Bs Personales  - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1607,20 +1607,20 @@
       <c r="B20" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C20" s="4" t="str">
+      <c r="C20" s="4" t="e">
         <f>VLOOKUP($B20,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D20" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="4" t="e">
         <f>VLOOKUP(D20,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F20" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="4" t="e">
         <f>VLOOKUP(B20,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="5">
         <v>45047</v>
@@ -1628,18 +1628,18 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Anticipo Ganancias y Bs Personales _Juan Perez.pdf</v>
+      <c r="J20" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="4" t="str">
+      <c r="L20" s="4" t="e">
         <f>VLOOKUP($B20,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M20" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Anticipo Ganancias y Bs Personales  - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1691,20 +1691,20 @@
       <c r="B22" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C22" s="4" t="e">
         <f>VLOOKUP($B22,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D22" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="4" t="e">
         <f>VLOOKUP(D22,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F22" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="4" t="e">
         <f>VLOOKUP(B22,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" s="5">
         <v>45047</v>
@@ -1712,18 +1712,18 @@
       <c r="H22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J22" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="4" t="str">
+      <c r="L22" s="4" t="e">
         <f>VLOOKUP($B22,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M22" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1775,20 +1775,20 @@
       <c r="B24" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="4" t="e">
         <f>VLOOKUP($B24,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D24" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="4" t="e">
         <f>VLOOKUP(D24,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F24" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="4" t="e">
         <f>VLOOKUP(B24,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G24" s="5">
         <v>45047</v>
@@ -1796,18 +1796,18 @@
       <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J24" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="4" t="str">
+      <c r="L24" s="4" t="e">
         <f>VLOOKUP($B24,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M24" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1859,20 +1859,20 @@
       <c r="B26" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="C26" s="4" t="e">
         <f>VLOOKUP($B26,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D26" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="E26" s="4" t="e">
         <f>VLOOKUP(D26,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F26" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="4" t="e">
         <f>VLOOKUP(B26,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G26" s="5">
         <v>45047</v>
@@ -1880,18 +1880,18 @@
       <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J26" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="4" t="str">
+      <c r="L26" s="4" t="e">
         <f>VLOOKUP($B26,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M26" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1943,20 +1943,20 @@
       <c r="B28" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="4" t="e">
         <f>VLOOKUP($B28,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D28" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="E28" s="4" t="e">
         <f>VLOOKUP(D28,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F28" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="4" t="e">
         <f>VLOOKUP(B28,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G28" s="5">
         <v>45047</v>
@@ -1964,18 +1964,18 @@
       <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J28" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="4" t="str">
+      <c r="L28" s="4" t="e">
         <f>VLOOKUP($B28,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M28" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2027,20 +2027,20 @@
       <c r="B30" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="4" t="e">
         <f>VLOOKUP($B30,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D30" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="4" t="e">
         <f>VLOOKUP(D30,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F30" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="4" t="e">
         <f>VLOOKUP(B30,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G30" s="5">
         <v>45047</v>
@@ -2048,18 +2048,18 @@
       <c r="H30" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J30" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="4" t="str">
+      <c r="L30" s="4" t="e">
         <f>VLOOKUP($B30,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M30" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2111,20 +2111,20 @@
       <c r="B32" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C32" s="4" t="str">
+      <c r="C32" s="4" t="e">
         <f>VLOOKUP($B32,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D32" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E32" s="4" t="e">
         <f>VLOOKUP(D32,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F32" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="4" t="e">
         <f>VLOOKUP(B32,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G32" s="5">
         <v>45047</v>
@@ -2132,18 +2132,18 @@
       <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J32" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="4" t="str">
+      <c r="L32" s="4" t="e">
         <f>VLOOKUP($B32,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M32" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2195,20 +2195,20 @@
       <c r="B34" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C34" s="4" t="str">
+      <c r="C34" s="4" t="e">
         <f>VLOOKUP($B34,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D34" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="4" t="e">
         <f>VLOOKUP(D34,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F34" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="4" t="e">
         <f>VLOOKUP(B34,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" s="5">
         <v>45047</v>
@@ -2216,18 +2216,18 @@
       <c r="H34" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Autonomos_Juan Perez.pdf</v>
+      <c r="J34" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="4" t="str">
+      <c r="L34" s="4" t="e">
         <f>VLOOKUP($B34,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M34" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M34" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Autonomos - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2279,20 +2279,20 @@
       <c r="B36" s="7">
         <v>27000000006</v>
       </c>
-      <c r="C36" s="4" t="str">
+      <c r="C36" s="4" t="e">
         <f>VLOOKUP($B36,Contribuyentes!$A$2:$F$29,2,FALSE)</f>
-        <v>clavefalsa123</v>
+        <v>#N/A</v>
       </c>
       <c r="D36" s="7">
         <v>27000000006</v>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="4" t="e">
         <f>VLOOKUP(D36,Contribuyentes!$A$2:$F$29,5,FALSE)</f>
-        <v>Juan Perez</v>
-      </c>
-      <c r="F36" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="4" t="e">
         <f>VLOOKUP(B36,Contribuyentes!$A$2:$F$29,6,FALSE)</f>
-        <v>Red Link</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" s="5">
         <v>45047</v>
@@ -2300,18 +2300,18 @@
       <c r="H36" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>05-2023_27-00000000-6_Monotributo _Juan Perez.pdf</v>
+      <c r="J36" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="4" t="str">
+      <c r="L36" s="4" t="e">
         <f>VLOOKUP($B36,Contribuyentes!$A$2:$G$29,7,FALSE)</f>
-        <v>mail@gmail.com.ar</v>
-      </c>
-      <c r="M36" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M36" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>052023 - Monotributo  - Juan Perez</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>27000000006</v>
+        <v>20238733333</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="17" t="e">
         <f>VLOOKUP(A2,[1]!Tabla1[[CUIT SOCIO]:[clave afip]],2,FALSE)</f>
@@ -2422,13 +2422,13 @@
         <v>#REF!</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>23000000006</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="17" t="e">
         <f>VLOOKUP(A3,[1]!Tabla1[[CUIT SOCIO]:[clave afip]],2,FALSE)</f>
@@ -2447,13 +2447,13 @@
         <v>#REF!</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/Lista de VEPs.xlsx
+++ b/Lista de VEPs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38024D4-7CFC-4785-8C65-35D837516447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D27606-1F01-4A93-8F17-177AD7BAAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,6 @@
     <sheet name="Lista" sheetId="2" r:id="rId1"/>
     <sheet name="Contribuyentes" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Contribuyentes!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista!$A$1:$M$37</definedName>
@@ -423,21 +420,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Datos Fiscales 2023"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f t="shared" ref="J2:J37" si="0">CONCATENATE(TEXT(G2,"MM-YYYY"),"_", TEXT(B2,"00-00000000-0"),"_",H2, "_",E2,".pdf")</f>
+        <f t="shared" ref="J2" si="0">CONCATENATE(TEXT(G2,"MM-YYYY"),"_", TEXT(B2,"00-00000000-0"),"_",H2, "_",E2,".pdf")</f>
         <v>06-2023_20-23873333-3_Monotributo _Javier Nine.pdf</v>
       </c>
       <c r="K2" s="6"/>
@@ -1406,7 +1388,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,13 +1432,13 @@
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="e">
-        <f>VLOOKUP(A2,[1]!Tabla1[[CUIT SOCIO]:[clave afip]],2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="17" t="e">
+      <c r="C2" s="17" t="str">
+        <f>+B2</f>
+        <v>Javier0606</v>
+      </c>
+      <c r="D2" s="17" t="str">
         <f>IF(EXACT(B2,C2),"OK","MAL")</f>
-        <v>#REF!</v>
+        <v>OK</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>19</v>

--- a/Lista de VEPs.xlsx
+++ b/Lista de VEPs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D27606-1F01-4A93-8F17-177AD7BAAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB944A-762F-49F2-B77B-84A12C7CA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M38"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,9 +851,6 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
@@ -866,9 +863,6 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" s="7"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
@@ -881,9 +875,6 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
@@ -896,9 +887,6 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="4"/>
       <c r="D6" s="7"/>
@@ -911,9 +899,6 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7"/>
@@ -926,9 +911,6 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="7"/>
@@ -941,9 +923,6 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
@@ -956,9 +935,6 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
       <c r="D10" s="7"/>
@@ -971,9 +947,6 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="7"/>
@@ -986,9 +959,6 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
@@ -1001,9 +971,6 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
@@ -1016,9 +983,6 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
@@ -1031,9 +995,6 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
@@ -1046,9 +1007,6 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
@@ -1060,10 +1018,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
@@ -1075,10 +1030,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
@@ -1090,10 +1042,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
@@ -1105,10 +1054,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
@@ -1120,10 +1066,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
@@ -1135,10 +1078,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
@@ -1150,10 +1090,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7"/>
@@ -1165,10 +1102,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
@@ -1180,10 +1114,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
       <c r="D25" s="7"/>
@@ -1195,10 +1126,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="4"/>
       <c r="D26" s="7"/>
@@ -1210,10 +1138,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="4"/>
       <c r="D27" s="7"/>
@@ -1225,10 +1150,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="4"/>
       <c r="D28" s="7"/>
@@ -1240,10 +1162,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>30</v>
-      </c>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
@@ -1255,10 +1174,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>31</v>
-      </c>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="4"/>
       <c r="D30" s="7"/>
@@ -1270,10 +1186,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>32</v>
-      </c>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="7"/>
@@ -1285,10 +1198,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>33</v>
-      </c>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
       <c r="D32" s="7"/>
@@ -1300,10 +1210,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>34</v>
-      </c>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
       <c r="D33" s="7"/>
@@ -1315,10 +1222,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35</v>
-      </c>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
@@ -1330,10 +1234,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>36</v>
-      </c>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="4"/>
       <c r="D35" s="7"/>
@@ -1345,10 +1246,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>37</v>
-      </c>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
@@ -1360,10 +1258,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>38</v>
-      </c>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="4"/>
       <c r="D37" s="7"/>
@@ -1388,7 +1283,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lista de VEPs.xlsx
+++ b/Lista de VEPs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB944A-762F-49F2-B77B-84A12C7CA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E223AF46-AAAE-4562-B0DB-E700C54D56E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -381,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,6 +410,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -745,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,14 +838,14 @@
         <v>Red Link</v>
       </c>
       <c r="G2" s="5">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="4" t="str">
         <f t="shared" ref="J2" si="0">CONCATENATE(TEXT(G2,"MM-YYYY"),"_", TEXT(B2,"00-00000000-0"),"_",H2, "_",E2,".pdf")</f>
-        <v>06-2023_20-23873333-3_Monotributo _Javier Nine.pdf</v>
+        <v>07-2023_20-23873333-3_Monotributo _Javier Nine.pdf</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="str">
@@ -847,7 +854,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f>CONCATENATE(TEXT(G2,"mmyyyy"), " - ",H2, " - ", E2)</f>
-        <v>062023 - Monotributo  - Javier Nine</v>
+        <v>072023 - Monotributo  - Javier Nine</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1282,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,8 +1353,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="7"/>
